--- a/Data/Excel/Proto/Localization.xlsx
+++ b/Data/Excel/Proto/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F99222B-678E-4245-B8A9-7124372F8679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AA25C9-87C0-4B71-A8D6-5720FE252EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
+    <workbookView xWindow="12930" yWindow="2835" windowWidth="15600" windowHeight="11295" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Point" sheetId="1" r:id="rId1"/>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>COOKIE_GRADE_</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>레어</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -202,10 +198,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>COOKIE_ROLL_</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>수호자</t>
   </si>
   <si>
@@ -244,10 +236,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>COOKIE_FORMATION_</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>전방</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -413,6 +401,18 @@
   </si>
   <si>
     <t>#Point</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOKIE_ROLL_NAME_</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOKIE_FORMATION_NAME_</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOKIE_GRADE_NAME_</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1352,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3972A4-1AE7-47B0-9FC5-59A1EBD4A86B}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1525,13 +1525,13 @@
         <v>COOKIE_SOULSTONE_NAME_1010</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>1010</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1540,13 +1540,13 @@
         <v>COOKIE_SOULSTONE_NAME_1020</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>1020</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1555,13 +1555,13 @@
         <v>COOKIE_SOULSTONE_NAME_2010</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>2010</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1570,13 +1570,13 @@
         <v>COOKIE_SOULSTONE_NAME_3010</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>3010</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1585,13 +1585,13 @@
         <v>COOKIE_SOULSTONE_NAME_4010</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <v>4010</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1600,13 +1600,13 @@
         <v>COOKIE_SOULSTONE_NAME_5010</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>5010</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,13 +1615,13 @@
         <v>COOKIE_SOULSTONE_NAME_6010</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>6010</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,331 +1630,331 @@
         <v>COOKIE_SOULSTONE_NAME_6020</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>6020</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>COOKIE_GRADE_COMMON</v>
+        <v>COOKIE_GRADE_NAME_COMMON</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>COOKIE_GRADE_RARE</v>
+        <v>COOKIE_GRADE_NAME_RARE</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>COOKIE_GRADE_EPIC</v>
+        <v>COOKIE_GRADE_NAME_EPIC</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>COOKIE_GRADE_SUPER_EPIC</v>
+        <v>COOKIE_GRADE_NAME_SUPER_EPIC</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>COOKIE_GRADE_ANCIENT</v>
+        <v>COOKIE_GRADE_NAME_ANCIENT</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>COOKIE_GRADE_LEGENDARY</v>
+        <v>COOKIE_GRADE_NAME_LEGENDARY</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>COOKIE_ROLL_DEFENDER</v>
+        <v>COOKIE_ROLL_NAME_DEFENDER</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>COOKIE_ROLL_FIGHTER</v>
+        <f>_xlfn.CONCAT(B26,C26)</f>
+        <v>COOKIE_ROLL_NAME_FIGHTER</v>
       </c>
       <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
         <v>42</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>COOKIE_ROLL_ASSASSIN</v>
+        <v>COOKIE_ROLL_NAME_ASSASSIN</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>COOKIE_ROLL_BOMBER</v>
+        <v>COOKIE_ROLL_NAME_BOMBER</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>COOKIE_ROLL_MAGE</v>
+        <v>COOKIE_ROLL_NAME_MAGE</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>COOKIE_ROLL_SUPPORTER</v>
+        <v>COOKIE_ROLL_NAME_SUPPORTER</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>COOKIE_ROLL_HEALER</v>
+        <v>COOKIE_ROLL_NAME_HEALER</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>COOKIE_ROLL_SNIPER</v>
+        <v>COOKIE_ROLL_NAME_SNIPER</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>COOKIE_FORMATION_FRONT</v>
+        <v>COOKIE_FORMATION_NAME_FRONT</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>COOKIE_FORMATION_MID</v>
+        <v>COOKIE_FORMATION_NAME_MID</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
         <v>53</v>
-      </c>
-      <c r="D34" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>COOKIE_FORMATION_REAR</v>
+        <v>COOKIE_FORMATION_NAME_REAR</v>
       </c>
       <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
         <v>54</v>
-      </c>
-      <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1963,13 +1963,13 @@
         <v>ITEM_NAME_11001</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C45">
         <v>11001</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1978,13 +1978,13 @@
         <v>ITEM_NAME_11101</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <v>11101</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1993,13 +1993,13 @@
         <v>ITEM_NAME_11102</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C47">
         <v>11102</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2008,13 +2008,13 @@
         <v>ITEM_NAME_11103</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C48">
         <v>11103</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2023,13 +2023,13 @@
         <v>ITEM_NAME_11104</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C49">
         <v>11104</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2038,13 +2038,13 @@
         <v>ITEM_NAME_12001</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C50">
         <v>12001</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2053,13 +2053,13 @@
         <v>ITEM_NAME_13001</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C51">
         <v>13001</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2068,13 +2068,13 @@
         <v>ITEM_NAME_19001</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C52">
         <v>19001</v>
       </c>
       <c r="D52" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,13 +2083,13 @@
         <v>ITEM_NAME_19002</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C53">
         <v>19002</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2098,13 +2098,13 @@
         <v>ITEM_NAME_19003</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C54">
         <v>19003</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2113,13 +2113,13 @@
         <v>ITEM_NAME_19004</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C55">
         <v>19004</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2128,18 +2128,18 @@
         <v>ITEM_NAME_19005</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C56">
         <v>19005</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2148,7 +2148,7 @@
         <v>WORLD_STAGE_NAME_11010010</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58">
         <v>11010010</v>
@@ -2161,7 +2161,7 @@
         <v>WORLD_STAGE_NAME_11010020</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C59">
         <v>11010020</v>
@@ -2174,7 +2174,7 @@
         <v>WORLD_STAGE_NAME_11010030</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C60">
         <v>11010030</v>
@@ -2187,7 +2187,7 @@
         <v>WORLD_STAGE_NAME_11010040</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C61">
         <v>11010040</v>
@@ -2200,7 +2200,7 @@
         <v>WORLD_STAGE_NAME_11010050</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C62">
         <v>11010050</v>
@@ -2215,7 +2215,7 @@
         <v>WORLD_STAGE_NAME_11010060</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C63">
         <v>11010060</v>
@@ -2228,7 +2228,7 @@
         <v>WORLD_STAGE_NAME_11010061</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C64">
         <v>11010061</v>
@@ -2243,7 +2243,7 @@
         <v>WORLD_STAGE_NAME_11010070</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C65">
         <v>11010070</v>
@@ -2258,7 +2258,7 @@
         <v>WORLD_STAGE_NAME_11010080</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C66">
         <v>11010080</v>
@@ -2271,7 +2271,7 @@
         <v>WORLD_STAGE_NAME_11010090</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C67">
         <v>11010090</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D68" s="1"/>
     </row>
@@ -2290,7 +2290,7 @@
         <v>WORLD_STAGE_NAME_11020010</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C69">
         <v>11020010</v>
@@ -2303,7 +2303,7 @@
         <v>WORLD_STAGE_NAME_11020020</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C70">
         <v>11020020</v>
@@ -2316,7 +2316,7 @@
         <v>WORLD_STAGE_NAME_11020030</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C71">
         <v>11020030</v>
@@ -2331,7 +2331,7 @@
         <v>WORLD_STAGE_NAME_11020040</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C72">
         <v>11020040</v>
@@ -2344,7 +2344,7 @@
         <v>WORLD_STAGE_NAME_11020050</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C73">
         <v>11020050</v>
@@ -2357,7 +2357,7 @@
         <v>WORLD_STAGE_NAME_11020060</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C74">
         <v>11020060</v>
@@ -2370,7 +2370,7 @@
         <v>WORLD_STAGE_NAME_11020061</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C75">
         <v>11020061</v>
@@ -2385,7 +2385,7 @@
         <v>WORLD_STAGE_NAME_11020070</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C76">
         <v>11020070</v>
@@ -2398,7 +2398,7 @@
         <v>WORLD_STAGE_NAME_11020080</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C77">
         <v>11020080</v>
@@ -2411,7 +2411,7 @@
         <v>WORLD_STAGE_NAME_11020090</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C78">
         <v>11020090</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D79" s="1"/>
     </row>
@@ -2430,7 +2430,7 @@
         <v>WORLD_STAGE_NAME_11030010</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C80">
         <v>11030010</v>
@@ -2443,7 +2443,7 @@
         <v>WORLD_STAGE_NAME_11030020</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C81">
         <v>11030020</v>
@@ -2456,7 +2456,7 @@
         <v>WORLD_STAGE_NAME_11030030</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C82">
         <v>11030030</v>
@@ -2469,7 +2469,7 @@
         <v>WORLD_STAGE_NAME_11030040</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C83">
         <v>11030040</v>
@@ -2482,7 +2482,7 @@
         <v>WORLD_STAGE_NAME_11030050</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C84">
         <v>11030050</v>
@@ -2495,7 +2495,7 @@
         <v>WORLD_STAGE_NAME_11030060</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85">
         <v>11030060</v>
@@ -2508,7 +2508,7 @@
         <v>WORLD_STAGE_NAME_11030070</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C86">
         <v>11030070</v>
@@ -2521,7 +2521,7 @@
         <v>WORLD_STAGE_NAME_11030080</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C87">
         <v>11030080</v>
@@ -2534,7 +2534,7 @@
         <v>WORLD_STAGE_NAME_11030090</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C88">
         <v>11030090</v>
@@ -2547,7 +2547,7 @@
         <v>WORLD_STAGE_NAME_11030100</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C89">
         <v>11030100</v>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D90" s="1"/>
     </row>
@@ -2566,7 +2566,7 @@
         <v>WORLD_STAGE_NAME_12010010</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C91">
         <v>12010010</v>
@@ -2579,7 +2579,7 @@
         <v>WORLD_STAGE_NAME_12020020</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C92">
         <v>12020020</v>
@@ -2592,7 +2592,7 @@
         <v>WORLD_STAGE_NAME_12030030</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C93">
         <v>12030030</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D94" s="1"/>
     </row>
@@ -2611,7 +2611,7 @@
         <v>WORLD_STAGE_NAME_13010010</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C95">
         <v>13010010</v>
@@ -2624,7 +2624,7 @@
         <v>WORLD_STAGE_NAME_13020020</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C96">
         <v>13020020</v>
@@ -2637,7 +2637,7 @@
         <v>WORLD_STAGE_NAME_13030030</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C97">
         <v>13030030</v>
@@ -2650,7 +2650,7 @@
         <v>WORLD_STAGE_NAME_13040040</v>
       </c>
       <c r="B98" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C98">
         <v>13040040</v>
@@ -2663,7 +2663,7 @@
         <v>WORLD_STAGE_NAME_13050050</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C99">
         <v>13050050</v>

--- a/Data/Excel/Proto/Localization.xlsx
+++ b/Data/Excel/Proto/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AA25C9-87C0-4B71-A8D6-5720FE252EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53515A91-C660-47B4-9D39-06C3CD3B79C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12930" yWindow="2835" windowWidth="15600" windowHeight="11295" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
+    <workbookView xWindow="720" yWindow="1890" windowWidth="15600" windowHeight="11295" xr2:uid="{C724E01A-1CB9-4CB6-B140-3DE7F90D01F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Point" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="102">
   <si>
     <t>곰젤리 마을</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -413,6 +413,26 @@
   </si>
   <si>
     <t>COOKIE_GRADE_NAME_</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Gacha</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GACHA_SCHEDULE_NAME_</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 뽑기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>픽업 뽑기1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>픽업 뽑기2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1350,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3972A4-1AE7-47B0-9FC5-59A1EBD4A86B}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1959,7 +1979,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f t="shared" ref="A45:A99" si="2">_xlfn.CONCAT(B45,C45)</f>
+        <f t="shared" ref="A45:A103" si="2">_xlfn.CONCAT(B45,C45)</f>
         <v>ITEM_NAME_11001</v>
       </c>
       <c r="B45" t="s">
@@ -2669,6 +2689,56 @@
         <v>13050050</v>
       </c>
       <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f t="shared" si="2"/>
+        <v>GACHA_SCHEDULE_NAME_1001001</v>
+      </c>
+      <c r="B101" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101">
+        <v>1001001</v>
+      </c>
+      <c r="D101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f t="shared" si="2"/>
+        <v>GACHA_SCHEDULE_NAME_1002001</v>
+      </c>
+      <c r="B102" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102">
+        <v>1002001</v>
+      </c>
+      <c r="D102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f t="shared" si="2"/>
+        <v>GACHA_SCHEDULE_NAME_1002002</v>
+      </c>
+      <c r="B103" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103">
+        <v>1002002</v>
+      </c>
+      <c r="D103" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
